--- a/WB/MakePrint/ХарактеристикиСиликонМат.xlsx
+++ b/WB/MakePrint/ХарактеристикиСиликонМат.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52E1E46-9063-49D9-ACBC-D8E17AB605A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8A8491-EBDA-4231-81D1-7E46C8D959C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C650022E-0108-4973-BD8C-33B5E89052D2}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Вид застежки</t>
   </si>
   <si>
-    <t xml:space="preserve">Комплектация </t>
-  </si>
-  <si>
     <t>Декоративные элементы</t>
   </si>
   <si>
@@ -418,6 +415,9 @@
   </si>
   <si>
     <t xml:space="preserve">Силиконовый матовый чехол для телефона *** с цветным рисунком изготовлен из TPU материала, или как все привыкли его назвать силикон или резина, он мягкий и гибкий. Чехол обеспечивает хорошую защиту телефона от потертостей, сколов, царапин. Изделие выполнено в формфакторе накладка или бампер, что означает что он закрывает только заднюю часть смартфона и немного выступает за экран. Небольшая толщина позволяет удобно держать смартфон в руке и чехол почти не увеличивает его габариты. Благодаря этому подойдёт и мужчинам, и женщинам, и детям, в отличие от чехла книжки, который значительно увеличивает габариты телефона. Наш защитный кейс на *** долгое время не теряет свои свойства и цвет. Все вырезы под технологические отверстия точно соблюдены и обеспечивают удобный доступ к разъемам и функциональным клавишам. Цветное покрытие в виде печати на чехле поможет преобразить внешний вид Вашего телефона, а также подчеркнуть Вашу индивидуальность. Принт выполнен сверху чехла износостойкими чернилами. Рисунок не имеет запаха и стойкий к истиранию, выполнен на специальном оборудовании ультрафиолетовыми чернилами.. Также доступны дизайны с рисунком: цветы, цветочки, узор цветы, роза, розочки, красивые цветы, лилия, пион и другие. </t>
+  </si>
+  <si>
+    <t>Комплектация (префикс)</t>
   </si>
 </sst>
 </file>
@@ -866,7 +866,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,1021 +879,1021 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="K5" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="K8" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="K9" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="K11" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="K12" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="K13" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="K15" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="K16" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="K17" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="K18" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="K19" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="K20" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="K21" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="K22" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="K23" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="K24" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="K25" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/WB/MakePrint/ХарактеристикиСиликонМат.xlsx
+++ b/WB/MakePrint/ХарактеристикиСиликонМат.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProduct\Python\WB\MakePrint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8A8491-EBDA-4231-81D1-7E46C8D959C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E9AD95-8138-42FF-92B8-8E381882AF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C650022E-0108-4973-BD8C-33B5E89052D2}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>9 Мая</t>
   </si>
   <si>
-    <t>Силиконовый чехол на модель ***</t>
-  </si>
-  <si>
     <t>Другие герои</t>
   </si>
   <si>
@@ -418,6 +415,9 @@
   </si>
   <si>
     <t>Комплектация (префикс)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Силиконовый чехол на модель </t>
   </si>
 </sst>
 </file>
@@ -866,7 +866,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -917,983 +917,983 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="K5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="K8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="K9" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="K11" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="K12" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="K13" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="K15" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="K16" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="K17" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="K18" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="K19" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="K20" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="K21" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="K22" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="K23" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="K24" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="K25" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/WB/MakePrint/ХарактеристикиСиликонМат.xlsx
+++ b/WB/MakePrint/ХарактеристикиСиликонМат.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProduct\Python\WB\MakePrint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E9AD95-8138-42FF-92B8-8E381882AF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9924FE-9C19-4425-8F04-31AB060749E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C650022E-0108-4973-BD8C-33B5E89052D2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="130">
   <si>
     <t>Категория</t>
   </si>
@@ -418,6 +418,12 @@
   </si>
   <si>
     <t xml:space="preserve">Силиконовый чехол на модель </t>
+  </si>
+  <si>
+    <t>матовый чехол;силиконовый чехол;чехол с картинкой</t>
+  </si>
+  <si>
+    <t>Наименование (суффикс)</t>
   </si>
 </sst>
 </file>
@@ -863,15 +869,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D4EEDC-B56D-49EE-B329-4D034A9045C2}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C25"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -911,8 +917,11 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -952,8 +961,11 @@
       <c r="M2" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N2" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -993,8 +1005,11 @@
       <c r="M3" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N3" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1034,8 +1049,11 @@
       <c r="M4" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N4" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1075,8 +1093,11 @@
       <c r="M5" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N5" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1116,8 +1137,11 @@
       <c r="M6" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N6" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1157,8 +1181,11 @@
       <c r="M7" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N7" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1198,8 +1225,11 @@
       <c r="M8" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N8" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1239,8 +1269,11 @@
       <c r="M9" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N9" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1280,8 +1313,11 @@
       <c r="M10" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N10" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -1321,8 +1357,11 @@
       <c r="M11" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N11" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1362,8 +1401,11 @@
       <c r="M12" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N12" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -1403,8 +1445,11 @@
       <c r="M13" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N13" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -1444,8 +1489,11 @@
       <c r="M14" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N14" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -1485,8 +1533,11 @@
       <c r="M15" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N15" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -1526,8 +1577,11 @@
       <c r="M16" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N16" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -1567,8 +1621,11 @@
       <c r="M17" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N17" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
@@ -1608,8 +1665,11 @@
       <c r="M18" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N18" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
@@ -1649,8 +1709,11 @@
       <c r="M19" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N19" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
@@ -1690,8 +1753,11 @@
       <c r="M20" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N20" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -1731,8 +1797,11 @@
       <c r="M21" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N21" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -1772,8 +1841,11 @@
       <c r="M22" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N22" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -1813,8 +1885,11 @@
       <c r="M23" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N23" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
@@ -1854,8 +1929,11 @@
       <c r="M24" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>78</v>
       </c>
@@ -1894,6 +1972,9 @@
       </c>
       <c r="M25" s="5" t="s">
         <v>102</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
